--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>16.6516102408</v>
+        <v>0.6698150192</v>
       </c>
       <c r="R2">
-        <v>149.8644921672</v>
+        <v>6.0283351728</v>
       </c>
       <c r="S2">
-        <v>0.3112576564754311</v>
+        <v>0.02276527781110837</v>
       </c>
       <c r="T2">
-        <v>0.3112576564754311</v>
+        <v>0.02276527781110837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
         <v>16.4121114088</v>
@@ -632,10 +632,10 @@
         <v>147.7090026792</v>
       </c>
       <c r="S3">
-        <v>0.3067808614929092</v>
+        <v>0.557805162587183</v>
       </c>
       <c r="T3">
-        <v>0.3067808614929092</v>
+        <v>0.557805162587183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>2.449684196599999</v>
+        <v>2.4496841966</v>
       </c>
       <c r="R4">
         <v>22.0471577694</v>
       </c>
       <c r="S4">
-        <v>0.04579034406356504</v>
+        <v>0.08325842163361394</v>
       </c>
       <c r="T4">
-        <v>0.04579034406356504</v>
+        <v>0.08325842163361392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>8.432581172377333</v>
+        <v>0.3392026019226667</v>
       </c>
       <c r="R5">
-        <v>75.893230551396</v>
+        <v>3.052823417304</v>
       </c>
       <c r="S5">
-        <v>0.1576247231226878</v>
+        <v>0.01152861797014227</v>
       </c>
       <c r="T5">
-        <v>0.1576247231226877</v>
+        <v>0.01152861797014227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>8.311296004617333</v>
@@ -818,10 +818,10 @@
         <v>74.80166404155599</v>
       </c>
       <c r="S6">
-        <v>0.1553576188284911</v>
+        <v>0.2824794265459323</v>
       </c>
       <c r="T6">
-        <v>0.1553576188284911</v>
+        <v>0.2824794265459323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
-        <v>1.240550345329666</v>
+        <v>1.240550345329667</v>
       </c>
       <c r="R7">
         <v>11.164953107967</v>
       </c>
       <c r="S7">
-        <v>0.02318879601691588</v>
+        <v>0.04216309345202018</v>
       </c>
       <c r="T7">
-        <v>0.02318879601691588</v>
+        <v>0.04216309345202016</v>
       </c>
     </row>
   </sheetData>
